--- a/resource/40.design/440.development/[Saturn]449DB_insert(9월27일 테이블 수정에 따라 수정요).xlsx
+++ b/resource/40.design/440.development/[Saturn]449DB_insert(9월27일 테이블 수정에 따라 수정요).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\com.github.ecommerce7th.saturn\resource\40.design\440.development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="745" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="745"/>
   </bookViews>
   <sheets>
     <sheet name="TB_SLE" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>dt_reg</t>
   </si>
@@ -90,48 +90,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seq_prd</t>
+    <t>price_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_sale_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_sale_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_upt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_ctg_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_ctg_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLG_DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_STATE_PRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_STATE_SALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATE_STAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_sle_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sle_nm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_sale_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_sale_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_upt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cd_ctg_b</t>
@@ -142,43 +185,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문자열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLG_DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD_STATE_PRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CORP_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD_STATE_SALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RATE_STAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_sle_img</t>
+    <t>PRD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corp_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flg_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1):판매(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P12"/>
+  <dimension ref="B2:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -635,146 +678,206 @@
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="6.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.25" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="11">
+        <f ca="1">RANDBETWEEN(1, 5)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="13">
-        <f>30000/2</f>
-        <v>15000</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="str">
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="str">
-        <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (1, 1, '문자열', '문자열', '문자열', 15000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I4" s="1"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I5" s="1"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I6" s="9"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I7" s="1"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I8" s="1"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I9" s="9"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I10" s="1"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I11" s="1"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="P12" s="4"/>
+      <c r="R3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; H3 &amp; ", '"&amp; I3 &amp; "', '" &amp; J3 &amp; "', " &amp; O3 &amp; ", " &amp; P3 &amp; ",  " &amp; Q3 &amp; ", " &amp; R3 &amp; ", " &amp; S3 &amp; ", " &amp; T3 &amp; "); "</f>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (1, varchar2, 'varchar2', 'varchar2', 'number', char(1), 'char(1):판매(2)', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, number(10), NULL, NULL); </v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -818,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -830,13 +933,13 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>0</v>
@@ -856,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -871,13 +974,13 @@
         <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
@@ -1308,19 +1411,19 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1339,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1442,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
